--- a/src/attributions/attributions_ig_traj_302.xlsx
+++ b/src/attributions/attributions_ig_traj_302.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,100 +1573,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.03435453746320331</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1128374331979724</v>
+        <v>0.4759943227380438</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1872712288361978</v>
+        <v>-0.1201594639894182</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1834866237269882</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>-0.005775807930814251</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00990392386061352</v>
+        <v>0.2588592995996558</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02743909889924995</v>
+        <v>-0.03853365835707552</v>
       </c>
       <c r="O3" t="n">
         <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1123469827679683</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.03622358152263674</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005441000616018848</v>
+        <v>0.2485302261703173</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.02797495035866397</v>
+        <v>-0.03929969543218494</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03874175884477135</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>-0.08169980291244344</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.04618246647045234</v>
+        <v>0.1444705563325223</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.1049074391495192</v>
+        <v>-0.211631905507813</v>
       </c>
       <c r="AG3" t="n">
         <v>-0</v>
@@ -1675,25 +1675,25 @@
         <v>-0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.1045927801013506</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.01194594574275511</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.02771131904317004</v>
+        <v>-0.08150807587867179</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.0382599188401686</v>
+        <v>-0.1282613914478672</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1702,28 +1702,28 @@
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.0152690972053552</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>-0.09045142658781727</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2387888562460959</v>
+        <v>0.2375787617720785</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1875124435346213</v>
+        <v>0.07998496561280662</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,49 +1732,49 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2274663974263705</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0.002146357323769882</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.0485680090493487</v>
+        <v>0.2552309159334467</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.007044172418247539</v>
+        <v>-0.02578993502219108</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.06605372715932867</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.06023217023328765</v>
       </c>
       <c r="BM3" t="n">
         <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.07096494032460018</v>
+        <v>0.1940946495368009</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06856706479363106</v>
+        <v>-0.04536711042732002</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
@@ -1783,25 +1783,25 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.07709440146833306</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.007562894209061898</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.04146226640833432</v>
+        <v>0.03298864393481588</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.156161726393017</v>
+        <v>0.09669591099923526</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1813,25 +1813,25 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1726123448817579</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0.01439100189716217</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.08078746210961513</v>
+        <v>-0.09780634357270909</v>
       </c>
       <c r="CG3" t="n">
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.05529731662819903</v>
+        <v>-0.003645915826593462</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ3" t="n">
         <v>-0</v>
@@ -1840,103 +1840,103 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.03969478458767219</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>-0.003047177831489872</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.03499469434652242</v>
+        <v>-0.08252775565730001</v>
       </c>
       <c r="CP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.09553152027093377</v>
+        <v>-0.3970769765209062</v>
       </c>
       <c r="CR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.09703933153062309</v>
+        <v>-0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>0.008016219320154899</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.07985000471309715</v>
+        <v>-0.1118768827842311</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.09815694693571846</v>
+        <v>0.005103569068570612</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.04357207178186071</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>-0.04073465967932579</v>
       </c>
       <c r="DF3" t="n">
         <v>0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.09714991158652711</v>
+        <v>0.009120133466261754</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.05817487189545155</v>
+        <v>0.01877661324188408</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.002114743205947344</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.03951725934306869</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.1191981063003372</v>
+        <v>0.06912117432372802</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.05704710325015294</v>
+        <v>-0.1108696402149164</v>
       </c>
       <c r="DS3" t="n">
         <v>-0</v>
@@ -1948,181 +1948,181 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.06131322640343688</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.07007600361633561</v>
       </c>
       <c r="DX3" t="n">
         <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.002369204589124543</v>
+        <v>0.1306316238305401</v>
       </c>
       <c r="DZ3" t="n">
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.006444430302852401</v>
+        <v>-0.1782618142599951</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.03912605650218539</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.008558910096247653</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.05050119959483578</v>
+        <v>-0.2116875547830959</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.04610736599869422</v>
+        <v>0.04159921834235067</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.00278240348868512</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>-0.06074757165018695</v>
       </c>
       <c r="EP3" t="n">
         <v>0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.06188829334084552</v>
+        <v>-0.09386918556968972</v>
       </c>
       <c r="ER3" t="n">
         <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.03763851751016062</v>
+        <v>-0.04838250157991998</v>
       </c>
       <c r="ET3" t="n">
         <v>-0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
         <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.06249339511684728</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0.0184441157825004</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.08720420134297228</v>
+        <v>-0.1320928299374139</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.05532299281079203</v>
+        <v>0.002178122174200874</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.06477295717414057</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.1560292318197838</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0706395956317491</v>
+        <v>-0.03455305248514875</v>
       </c>
       <c r="FJ3" t="n">
         <v>-0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.1223422144854603</v>
+        <v>-0.01773195163690647</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1398486253552685</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>-0</v>
+        <v>0.1503279883909637</v>
       </c>
       <c r="FQ3" t="n">
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.05037768258073674</v>
+        <v>-0.0005516469418849135</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.002278894391411971</v>
+        <v>-0.003021711135958419</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0002693906841541453</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.09156337390444502</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02417531224913004</v>
+        <v>0.2547103064914795</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
         <v>-0</v>
@@ -2131,13 +2131,13 @@
         <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.05403575614677166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.3561149310637874</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05653345928968964</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.1265255888044061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01725521175422734</v>
+        <v>-0.07198802680510283</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1270053935687026</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.1825301682243356</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01567436452743821</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.03585201400294388</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.009471032177766047</v>
+        <v>-0.05183328611711112</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07515792738861743</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1249270999519946</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01988589879393985</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.01529849920089017</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04876678722185294</v>
+        <v>0.06474501983557733</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,52 +2217,52 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.01228869855468546</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.06264810829151295</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.02477858508504246</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.02789864735587837</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.05978871340837943</v>
+        <v>-0.04827510066501649</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.04866687906273283</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.0655387643900939</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.004635817323343856</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.03736921922498135</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.04180910995955974</v>
+        <v>-0.0368331781294193</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2271,79 +2271,79 @@
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.004864083797520469</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.4593330658165092</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.08242686615420244</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0.002960269556493977</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.03058151565351461</v>
+        <v>0.1642860309609783</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.1273378762765085</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.01058398285251737</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.02967151534552515</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.08377110283015082</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.01384946791234247</v>
+        <v>-0.1368602223709405</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.01519922670534674</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.05070206617128821</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0492795589407754</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>0</v>
+        <v>0.1006508634624478</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.04143882092867966</v>
+        <v>0.03795953933930902</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,25 +2352,25 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.0194602361109293</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.1731773461058878</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.002351900594659638</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.0004475372946568101</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02532435888884664</v>
+        <v>0.008385119989591502</v>
       </c>
       <c r="BZ4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.06578932445470312</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.07575219459391222</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02962587633347063</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>0</v>
+        <v>0.01728485347369743</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.003532455361074498</v>
+        <v>-0.02943372403463158</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,22 +2409,22 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.0271903741000293</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0.01306412190612003</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.003904615876080853</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1480232095697516</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02394747923015873</v>
+        <v>-0.1599487314418404</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
@@ -2433,25 +2433,25 @@
         <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.06511423693087888</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.06168283758816218</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01959121899024523</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.0443104475796286</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01341684614391185</v>
+        <v>-0.02210503069352294</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,28 +2460,28 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02535815300654242</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.04834388103573518</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.006749287940616878</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.004042982777591294</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0006655016324312933</v>
+        <v>-0.0006603669420508549</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
         <v>-0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02770204635005825</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.08497180177957243</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02330000106002337</v>
+        <v>0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.03747315826602773</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.003429310070410085</v>
+        <v>-0.02982821848932385</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,49 +2517,49 @@
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.02944130918849133</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.05348678516823786</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01688261166162491</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.0651930643485146</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.02233271916056306</v>
+        <v>-0.001664440497526358</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01028857857224149</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.0237843792028303</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.007312335310623451</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0</v>
+        <v>0.08049376441311916</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.04070038393561785</v>
+        <v>-0.006741574273745052</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,52 +2568,52 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.03034090600961956</v>
+        <v>-0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.04093176850525554</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.001131864098300559</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.00426669618592571</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03490918836487059</v>
+        <v>-0.01655311467295086</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.04824447195856028</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.06614200946667963</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.02408941019353393</v>
+        <v>-0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.02743098400969963</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.003125571615745907</v>
+        <v>-0.03422395504262252</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,52 +2622,52 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.03225186710989807</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.02234940341817437</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.001281764039463621</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.06563666382333146</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.03130024159748238</v>
+        <v>0.01840826022509459</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.02714295404639627</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>0.003107583882728665</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01265106714392075</v>
+        <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.01344969248240226</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0002871554457227491</v>
+        <v>0.0006818895158254737</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0008966867613736209</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.007396112471023683</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.01678345450045526</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02526066701061019</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.03431088387813015</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,142 +2714,142 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1067520881614638</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01829030465198196</v>
+        <v>-0.06052599988298477</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.03846608801114317</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.03402185879753929</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09422741294061253</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.04964192727147156</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03139025592200519</v>
+        <v>-0.0442802221767126</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.01551196835625203</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01614208763298756</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07649139770436045</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.01250145826529648</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04049453113114024</v>
+        <v>-0.01249850471419778</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.02767342172499816</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01929551589006481</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01058602125700251</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.02388469132956183</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.02740974615762871</v>
+        <v>0.01826901798473594</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.01059706986523436</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02407782226168731</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.03542844826204756</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.02092504024519522</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02731607128500739</v>
+        <v>-0.02009997719183698</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.01727355496840892</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.007136748981793251</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002817062175455663</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.09855310361243265</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03130833451447702</v>
+        <v>-0.04642104072965226</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.01155946554011045</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.03163226121993745</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.08857491433104873</v>
+        <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.04027128200858136</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.06794747266952667</v>
+        <v>-0.03261881706025941</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.01797634261063356</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.02873918941703813</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.008434166131913116</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.05188754683474466</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01829096757973098</v>
+        <v>0.02928728955659736</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>0.01123681631801555</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001922732686214224</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.02328124231112142</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.03825805210517411</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.02033641159460061</v>
+        <v>-0.01148512049897203</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.01303028352780599</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.01299464928355818</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04057651730298903</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.01897536174469697</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0003855623348495142</v>
+        <v>0.01329747553957948</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.009954338262137805</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.0006089039970852044</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.01143099403398586</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.01582086210105488</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.008521509404737762</v>
+        <v>-0.0005885399799151856</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.0273305265405328</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.01453901394914992</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.02491089673781167</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.009502863082208027</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.005998023858865342</v>
+        <v>0.01439833212033915</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01271295844720441</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.004141894598238869</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.02150763127757582</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.01125526900111296</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,106 +3047,106 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.02585228024492423</v>
+        <v>0.01141030791665471</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-6.056470297878208e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.007002505130187136</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.009879988748806584</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.02797623750353575</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02242989278270034</v>
+        <v>0.01634930262969177</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.01633261051959558</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.007000297057764258</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02586561048601515</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.006441083044735357</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01533992868810407</v>
+        <v>-0.02630858752039393</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>-0.01934566402305272</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.0152431885813178</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.01566827946595423</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.00205751349145509</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.02013261562724392</v>
+        <v>0.007691282343582714</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.002110384314062909</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.004589792151853923</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.02144946832067719</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.005679613723549085</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3155,79 +3155,79 @@
         <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04977487642381405</v>
+        <v>0.01250032474378423</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.02041046235442567</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0219465877921009</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.01403693779345635</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.009257979069952214</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.002237717828400775</v>
+        <v>0.01147998931206695</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.01676593326430771</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.004703259858671376</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.02282833594074041</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01751478070731344</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.03143301247721995</v>
+        <v>-0.030966821181032</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01868111649985066</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02675073024814813</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.01577568320913158</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.001266604494608573</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,28 +3236,28 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.00419567864124959</v>
+        <v>3.863028141226272e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.01424341838014244</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0177682211190767</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.00465014185524665</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.03099683841162381</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.01757549923708997</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0007658014173487721</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.01525303815527899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,16 +3852,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.6391659145313217</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1641208996280544</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.2365980492158563</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006834531420742338</v>
+        <v>-0.1113425574134316</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -3873,49 +3873,49 @@
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2756919187402325</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.3694608138268159</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08802102151219832</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.1293568256043511</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06095257535873352</v>
+        <v>-0.1278050197358959</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>-0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2307327615129111</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1925241374079961</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01548622206978395</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.01592377287021692</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1159447839716287</v>
+        <v>0.06923603100430159</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.05142727658994466</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1654662477341693</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.08370142882366699</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.03861032753436842</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.07130931944794024</v>
+        <v>-0.04613077271413486</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.1318526486223814</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.08679085030393288</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.001923172562554108</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.05372001504882036</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.078454958938666</v>
+        <v>-0.08112050885404522</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,103 +3981,103 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.002213509260493174</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.6608559989016614</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.243973494245995</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>0.00852837919392384</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.008035920148332883</v>
+        <v>0.1789105404760029</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.2146170154768462</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.04601121809795152</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.06412940176736201</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.0986632030180459</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.04450257384858509</v>
+        <v>-0.2625437831648823</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.04680689574359186</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.1317584643959548</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.04703414595612691</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.1276229836939824</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.06975698287139091</v>
+        <v>0.08416168416787762</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.07124507861401358</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.2510892411769912</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0.01188178906579946</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>0.002205373589976408</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.02930423545406032</v>
+        <v>0.02344556451889979</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,25 +4089,25 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.1292855068835922</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1285939729541455</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.05166093611951865</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.007282079709320145</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01647946443991705</v>
+        <v>-0.02676603560516585</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ7" t="n">
         <v>-0</v>
@@ -4116,49 +4116,49 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.05445118135567466</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.04209217328935084</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.01168801310396244</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.2282899671561038</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.01592058896829902</v>
+        <v>-0.1925689471241108</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.1289778181502935</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>-0.09699398560957834</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02250293421692619</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.05398731966621138</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01145072723215138</v>
+        <v>-0.0463487271341383</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4170,25 +4170,25 @@
         <v>-0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.05676529085137495</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.03328877388133185</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01504448397644091</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.002808631668574844</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.006707760386083308</v>
+        <v>0.01360289788541093</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK7" t="n">
         <v>-0</v>
@@ -4197,76 +4197,76 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.04456075111456045</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.1090123320997229</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.03463370116423878</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.0004832398363914035</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.02142619964460517</v>
+        <v>-0.03803142123141685</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.07975034187525522</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>0.04996801098329219</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01259515627208911</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.06850969970172842</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.02307422598211587</v>
+        <v>-0.05908075420209195</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02182443313202399</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.01979258951332803</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.02178270233036647</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.07846592610125309</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.08063424385186456</v>
+        <v>0.01306731612061468</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4275,25 +4275,25 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.05494232874364578</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.0818442401640978</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.05848571843517526</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.007976905882326083</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.01318878231755611</v>
+        <v>-0.03426789878111721</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
@@ -4302,25 +4302,25 @@
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.1212970330465529</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1055352385274809</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.03238367092451881</v>
+        <v>-0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.02494450854299121</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02306863431516404</v>
+        <v>-0.03277959337011766</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4332,49 +4332,49 @@
         <v>0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.08184696041594282</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.01582168562076832</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.054211116289367</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.1013031385400235</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.04303261734583724</v>
+        <v>-0.02667687198180682</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.078108036090696</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.01321612539136583</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0402559211624209</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.07227116730846736</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.01335882037828526</v>
+        <v>-0.01636606412371233</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.01951084430321224</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.0005382724481232909</v>
       </c>
       <c r="GA7" t="n">
-        <v>-0.00513292343063084</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.09304818465139206</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.06263409965953155</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,37 +4987,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.1610482492955126</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4847232337923146</v>
+        <v>-0.1088077813123832</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.852135809887519</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2886167784020425</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2862552063586976</v>
+        <v>-0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.1024361407059045</v>
       </c>
       <c r="L9" t="n">
         <v>-0</v>
@@ -5026,133 +5026,133 @@
         <v>-0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.4856998486306721</v>
+        <v>-0.184853148335681</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.5912815174291575</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2959948486996933</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.09302600722632386</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>-0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.08713665918561626</v>
       </c>
       <c r="U9" t="n">
         <v>-0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.06257128420987818</v>
+        <v>0.1213692006488572</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.07558953622967299</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01414446008216479</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.08308225527637987</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.01661956448096112</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.07194448797841296</v>
+        <v>-0.08723902682970272</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.08411596508441901</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.05659435273727721</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.07124867678173469</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.0008455007996129903</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.06617434036925106</v>
+        <v>-0.04608662049986035</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0</v>
+        <v>0.09422851899599061</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.01021856908630134</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.08792066655463104</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0.1338794208973295</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.3777837265823685</v>
+        <v>0.1260114726681031</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0</v>
+        <v>0.4660836145210936</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.1519746623358787</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.3668011749259735</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.1324941364813479</v>
       </c>
       <c r="BE9" t="n">
         <v>-0</v>
@@ -5161,106 +5161,106 @@
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.6165071383413743</v>
+        <v>-0.03953896381186277</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>0.2581850863709914</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.1679011284579116</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.07727542696034422</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>-0.1195051085225597</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0.2882616635385731</v>
+        <v>-0.06796066888769144</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.08185331599208102</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.1168578265558278</v>
+        <v>0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.03105932404351121</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0.005180521933065721</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>-0</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0.0591981443668334</v>
+        <v>0.04456770699322429</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>0.2434810026973603</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.08503075907029851</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>-0.08521042841506879</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>-0</v>
+        <v>0.0277157000295098</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG9" t="n">
         <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.05003943772612006</v>
+        <v>0.02592193181401367</v>
       </c>
       <c r="CI9" t="n">
-        <v>-0</v>
+        <v>-0.1475561910661542</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.04772739561903176</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.02790607929925231</v>
+        <v>-0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>-0</v>
+        <v>-0.01659900254786662</v>
       </c>
       <c r="CO9" t="n">
         <v>-0</v>
@@ -5269,25 +5269,25 @@
         <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.2115235503422053</v>
+        <v>-0.2359128661003942</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>0.034721434681577</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.03417170776945161</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0.09994075612764847</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
         <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.02097548525353573</v>
       </c>
       <c r="CX9" t="n">
         <v>-0</v>
@@ -5296,25 +5296,25 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.03736706935801568</v>
+        <v>-0.002695054673284479</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0.1392592744831578</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.07662859406202135</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.06712230586340455</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>-0</v>
+        <v>-0.04330872081444261</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
@@ -5323,351 +5323,351 @@
         <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.1991858225514828</v>
+        <v>-0.1874260218333113</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>0.008214384681277746</v>
       </c>
       <c r="DK9" t="n">
-        <v>-0.04271688727349682</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.01518934018086317</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>-0.0197887322422685</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ9" t="n">
         <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.02576716018597071</v>
+        <v>-0.04523500524884511</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>0.02628798538146674</v>
       </c>
       <c r="DT9" t="n">
-        <v>-0.06925273254711609</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0.02027364242553484</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.0347474500393013</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.01169027294330219</v>
+        <v>0.01870869682630657</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>-0.1080636860403735</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.06582475379032833</v>
+        <v>0</v>
       </c>
       <c r="ED9" t="n">
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.01416189846016106</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>-0</v>
+        <v>0.005247344624829083</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.1789263003587417</v>
+        <v>0.009843867366044413</v>
       </c>
       <c r="EK9" t="n">
-        <v>-0</v>
+        <v>-0.1400175333316397</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.1106313625997553</v>
+        <v>0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.04336939930991055</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
         <v>-0</v>
       </c>
       <c r="EP9" t="n">
-        <v>-0</v>
+        <v>0.07326980897088098</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0.1555691755425921</v>
+        <v>0.0001531781887074864</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0.03072216720621433</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.006091216266543497</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.02871502964071828</v>
+        <v>0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>-0</v>
+        <v>0.01205610375827625</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.09272961138364082</v>
+        <v>-0.0193933865953363</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>-0.1370084400539949</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.08011380129182323</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.06045259884778898</v>
+        <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>0.01434229979076404</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.06308105254473416</v>
+        <v>-0.008228703632391506</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>-0.1013887211656837</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.09817367212893807</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.06128716275577775</v>
+        <v>-0</v>
       </c>
       <c r="FP9" t="n">
         <v>-0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0</v>
+        <v>0.01416855702095217</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0.05836423983133465</v>
+        <v>0.06405269207446466</v>
       </c>
       <c r="FU9" t="n">
-        <v>-0</v>
+        <v>-0.2130015639146429</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.04480805325768767</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
         <v>0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0.05700712626194293</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
         <v>0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.0403298462270776</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>-0.02325825215476452</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.1481661898251486</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.2002250209301281</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.6069061146378678</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.9275831773675681</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.02068749981720105</v>
+        <v>0.0006543958195979888</v>
       </c>
       <c r="F10" t="n">
-        <v>-0</v>
+        <v>-1.15031659964763</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4199297442657222</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.523380225280236</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.6828209255984037</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0202637923360711</v>
+        <v>0.07086726417465244</v>
       </c>
       <c r="O10" t="n">
-        <v>-0</v>
+        <v>-0.8953381462463568</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2995711306865249</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1197266093641109</v>
+        <v>-0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.07280808561817999</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.07416229111101419</v>
+        <v>-0.0914036260287084</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>-0.1859628724526209</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.02386939690264883</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08733462332693771</v>
+        <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.1788746113347457</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.00371234234290489</v>
+        <v>0.06548548976914412</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.104037955729008</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.09427097223105323</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.0890957185973479</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0</v>
+        <v>0.07855909347610547</v>
       </c>
       <c r="AM10" t="n">
         <v>-0</v>
@@ -5676,13 +5676,13 @@
         <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.08298859018186704</v>
+        <v>0.1276192559349635</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0</v>
+        <v>-0.2228388324644296</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.04129435401005233</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>-0</v>
@@ -5691,52 +5691,52 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.3924020531145991</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.5556158566651179</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.303092097155939</v>
+        <v>-0.005196984851097001</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0.845476900926435</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.1319826031236352</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
         <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.1437655183156878</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.1883257353102635</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.121234786337921</v>
+        <v>-0.1343122508573107</v>
       </c>
       <c r="BH10" t="n">
-        <v>0</v>
+        <v>-0.2026003116894441</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.2006592039275013</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>-0</v>
@@ -5745,172 +5745,172 @@
         <v>-0</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.09244280083317605</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.2062694120227166</v>
       </c>
       <c r="BN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP10" t="n">
-        <v>-0.04913326495524881</v>
+        <v>-0.02372948108130291</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>-0.1441044411051978</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.004842127615956178</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT10" t="n">
         <v>0</v>
       </c>
       <c r="BU10" t="n">
-        <v>-0.3595118025350583</v>
+        <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>-0</v>
+        <v>0.3213255545467614</v>
       </c>
       <c r="BW10" t="n">
         <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.1043505533909141</v>
+        <v>-0.04343537188163908</v>
       </c>
       <c r="BZ10" t="n">
-        <v>-0</v>
+        <v>-0.4091961499661679</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.06139768449085935</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC10" t="n">
         <v>0</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.122170193194556</v>
+        <v>0</v>
       </c>
       <c r="CE10" t="n">
-        <v>-0</v>
+        <v>-0.1795711014328786</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH10" t="n">
-        <v>-0.009331790229100568</v>
+        <v>0.003291060756764263</v>
       </c>
       <c r="CI10" t="n">
-        <v>0</v>
+        <v>0.16184330870681</v>
       </c>
       <c r="CJ10" t="n">
-        <v>-0.0903040987861041</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL10" t="n">
         <v>0</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.2122704912356892</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.01645160525887287</v>
       </c>
       <c r="CO10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.2954631508035511</v>
+        <v>0.1595941004207705</v>
       </c>
       <c r="CR10" t="n">
-        <v>-0</v>
+        <v>-0.002237903322447016</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.1575471463848605</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.1348501459743658</v>
+        <v>-0</v>
       </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>-0.1527078887252293</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.04476280502633959</v>
+        <v>-0.02166459087406845</v>
       </c>
       <c r="DA10" t="n">
-        <v>-0</v>
+        <v>0.1693115239255667</v>
       </c>
       <c r="DB10" t="n">
-        <v>-0.08518096224773994</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.1200502301744047</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.2031082442774068</v>
       </c>
       <c r="DG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0917977808278345</v>
+        <v>0.09188838320631414</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0</v>
+        <v>0.3920880790026316</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.05226468181868248</v>
+        <v>0</v>
       </c>
       <c r="DL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM10" t="n">
         <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.06538361452979949</v>
+        <v>0</v>
       </c>
       <c r="DO10" t="n">
-        <v>-0</v>
+        <v>-0.07786345027817719</v>
       </c>
       <c r="DP10" t="n">
         <v>0</v>
@@ -5919,79 +5919,79 @@
         <v>0</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.1588482824884368</v>
+        <v>0.01386198428969668</v>
       </c>
       <c r="DS10" t="n">
-        <v>0</v>
+        <v>0.1470012641283373</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.09245228252811942</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.1331906357958599</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.1170105724663654</v>
       </c>
       <c r="DY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ10" t="n">
         <v>0</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.1052611438381042</v>
+        <v>0.08890680398345086</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0.1498868042846061</v>
       </c>
       <c r="EC10" t="n">
-        <v>-0.03723320422498003</v>
+        <v>-0</v>
       </c>
       <c r="ED10" t="n">
         <v>0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.03228525892697549</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>-0</v>
+        <v>-0.09873366804959559</v>
       </c>
       <c r="EH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
         <v>0</v>
       </c>
       <c r="EJ10" t="n">
-        <v>-0.04866536749540089</v>
+        <v>0.05321231750002578</v>
       </c>
       <c r="EK10" t="n">
-        <v>-0</v>
+        <v>0.02248494541082693</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.002729563533891204</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
         <v>0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.05649143133622134</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>-0</v>
+        <v>0.09478674268997729</v>
       </c>
       <c r="EQ10" t="n">
         <v>0</v>
@@ -6000,25 +6000,25 @@
         <v>-0</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.2029202005625526</v>
+        <v>0.02553130058808267</v>
       </c>
       <c r="ET10" t="n">
-        <v>0</v>
+        <v>-0.1164341345172164</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.1303397986551478</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.1431824454403952</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>-0</v>
+        <v>-0.1513224572845659</v>
       </c>
       <c r="EZ10" t="n">
         <v>0</v>
@@ -6027,13 +6027,13 @@
         <v>0</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.02689316990595247</v>
+        <v>-0.00171139917553017</v>
       </c>
       <c r="FC10" t="n">
-        <v>0</v>
+        <v>0.1512176811955386</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.07178690099946168</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
         <v>0</v>
@@ -6042,67 +6042,67 @@
         <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.1225359696830531</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.03647256348186501</v>
       </c>
       <c r="FI10" t="n">
         <v>0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.05191366164947851</v>
+        <v>-0.07876847655651834</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0.1787993947286605</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0.1406489272984763</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO10" t="n">
         <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.1264934876622089</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>-0</v>
+        <v>-0.04470970028295023</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.01045451743127445</v>
+        <v>0.2591538159409791</v>
       </c>
       <c r="FU10" t="n">
-        <v>0</v>
+        <v>0.2177744529922922</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.08524128984941659</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.03874360467199648</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>-0</v>
+        <v>-0.05930425694262565</v>
       </c>
       <c r="GA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
         <v>-0</v>
@@ -6111,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0.1077945291504715</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0158254310097725</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
         <v>0</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -6140,7 +6140,7 @@
         <v>-0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -6167,7 +6167,7 @@
         <v>-0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -6194,7 +6194,7 @@
         <v>-0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -6221,7 +6221,7 @@
         <v>-0</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -6248,7 +6248,7 @@
         <v>-0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -6275,7 +6275,7 @@
         <v>-0</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>-0</v>
       </c>
       <c r="BH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>-0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR11" t="n">
         <v>0</v>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV11" t="n">
         <v>0</v>
@@ -6356,7 +6356,7 @@
         <v>-0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>-0</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ11" t="n">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
         <v>0</v>
@@ -6410,7 +6410,7 @@
         <v>-0</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS11" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO11" t="n">
         <v>0</v>
@@ -6491,7 +6491,7 @@
         <v>-0</v>
       </c>
       <c r="DS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT11" t="n">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>-0</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL11" t="n">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
         <v>0</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="ET11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU11" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>-0</v>
       </c>
       <c r="FC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD11" t="n">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>-0</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>-0</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV11" t="n">
         <v>0</v>
